--- a/家庭每月预算1.xlsx
+++ b/家庭每月预算1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19200" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19200" windowHeight="10320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="预算概览" sheetId="4" r:id="rId1"/>
@@ -1381,259 +1381,7 @@
     <cellStyle name="着色 6" xfId="43" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="20" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="216">
-    <dxf>
-      <font>
-        <name val="Malgun Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Malgun Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Malgun Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Malgun Gothic"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.249977111117893"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.249977111117893"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.249977111117893"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei UI"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="164">
     <dxf>
       <font>
         <b val="0"/>
@@ -2707,8 +2455,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="CustomSlicerStyle1" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="215"/>
-      <tableStyleElement type="headerRow" dxfId="214"/>
+      <tableStyleElement type="wholeTable" dxfId="163"/>
+      <tableStyleElement type="headerRow" dxfId="162"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6230,11 +5978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="60"/>
-        <c:axId val="218476568"/>
-        <c:axId val="218268648"/>
+        <c:axId val="222068184"/>
+        <c:axId val="221782256"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="218268648"/>
+        <c:axId val="221782256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,7 +6034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218476568"/>
+        <c:crossAx val="222068184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6356,7 +6104,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:catAx>
-        <c:axId val="218476568"/>
+        <c:axId val="222068184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218268648"/>
+        <c:crossAx val="221782256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7013,7 +6761,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="家庭预算的卡通图形" title="横幅 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7063,7 +6811,7 @@
         <xdr:cNvPr id="4" name="文本框 3" descr="预算概览" title="标题 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7136,7 +6884,7 @@
         <xdr:cNvPr id="5" name="Budget_Chart" descr="用于显示实际支出细目的数据透视表图表" title="实际支出细目">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7179,7 +6927,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="以图标方式显示多个支出类别的卡通图形" title="横幅 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7231,7 +6979,7 @@
             <xdr:cNvPr id="2" name="类别" descr="预算摘要切片器&#10;&#10;用于快速筛选预算汇总的切片器">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB98C9EC-959A-4B71-A1CB-8BD3C7D8B40B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB98C9EC-959A-4B71-A1CB-8BD3C7D8B40B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7312,7 +7060,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="杂货店中一个女孩和一个男人的卡通图形" title="横幅 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7362,7 +7110,7 @@
         <xdr:cNvPr id="3" name="文本框 2" descr="每月支出" title="标题 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7440,7 +7188,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="记事本和计算器的卡通图形&#10;" title="横幅 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,7 +7238,7 @@
         <xdr:cNvPr id="3" name="文本框 2" descr="其他数据" title="标题 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8305,64 +8053,64 @@
     <dataField name="差额 " fld="4" baseField="1" baseItem="0" numFmtId="178"/>
   </dataFields>
   <formats count="52">
-    <format dxfId="212">
+    <format dxfId="160">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="159">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="158">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="157">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="155">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="154">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="152">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="150">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="149">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="147">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="146">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="141">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8371,7 +8119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="140">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8380,7 +8128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="139">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8389,26 +8137,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="138">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="137">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="136">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="3">
@@ -8422,7 +8170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="4">
@@ -8437,7 +8185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -8450,7 +8198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="5">
@@ -8466,7 +8214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="5">
@@ -8482,7 +8230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="7">
@@ -8500,7 +8248,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="4">
@@ -8515,7 +8263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -8528,7 +8276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="3">
@@ -8542,7 +8290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="7">
@@ -8560,7 +8308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="4">
@@ -8575,7 +8323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="13">
@@ -8599,7 +8347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8610,10 +8358,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="120">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8624,10 +8372,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="118">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8638,10 +8386,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="116">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8652,10 +8400,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="114">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8666,10 +8414,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="112">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8680,10 +8428,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="110">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -8794,179 +8542,23 @@
     <dataField name="成本" fld="3" baseField="1" baseItem="6" numFmtId="178"/>
   </dataFields>
   <formats count="91">
-    <format dxfId="145">
+    <format dxfId="93">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="92">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="90">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="88">
       <pivotArea dataOnly="0" grandRow="1" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="138">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="137">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="136">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="134">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="133">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="132">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="131">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="129">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="126">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="121">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="95">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="93">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="89">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
@@ -8978,28 +8570,28 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="84">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="81">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="80">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="78">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="77">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
@@ -9008,15 +8600,171 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="74">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9025,60 +8773,60 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="18">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="12">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="8">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -9291,16 +9039,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Monthly_Expenses_Table" displayName="Monthly_Expenses_Table" ref="B2:G61" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Monthly_Expenses_Table" displayName="Monthly_Expenses_Table" ref="B2:G61" headerRowDxfId="107" dataDxfId="106">
   <tableColumns count="6">
-    <tableColumn id="1" name="说明" totalsRowLabel="汇总" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" name="类别" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="3" name="预计成本" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="4" name="实际成本" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" name="差额" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="1" name="说明" totalsRowLabel="汇总" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="2" name="类别" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="3" name="预计成本" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="4" name="实际成本" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="5" name="差额" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>IF(OR(Monthly_Expenses_Table[[#This Row],[预计成本]]="",Monthly_Expenses_Table[[#This Row],[实际成本]]=""),"",Monthly_Expenses_Table[[#This Row],[预计成本]]-Monthly_Expenses_Table[[#This Row],[实际成本]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="实际成本概览" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="146">
+    <tableColumn id="6" name="实际成本概览" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>Monthly_Expenses_Table[[#This Row],[实际成本]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9309,9 +9057,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Category_List_Table" displayName="Category_List_Table" ref="E4:E16" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Category_List_Table" displayName="Category_List_Table" ref="E4:E16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="若要添加类别，请在下面键入内容" dataDxfId="52"/>
+    <tableColumn id="1" name="若要添加类别，请在下面键入内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9522,7 +9270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -9575,7 +9323,7 @@
       <c r="C3" s="71"/>
       <c r="D3" s="22">
         <f>Projected_Income-Projected_Expenses</f>
-        <v>1585</v>
+        <v>1135</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="23" t="s">
@@ -9613,7 +9361,7 @@
       <c r="C5" s="70"/>
       <c r="D5" s="24">
         <f>D4-D3</f>
-        <v>155</v>
+        <v>605</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="25" t="s">
@@ -9674,7 +9422,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="29">
         <f>SUM(Monthly_Expenses_Table[预计成本])</f>
-        <v>7915</v>
+        <v>8365</v>
       </c>
       <c r="G8" s="29">
         <f>SUM(Monthly_Expenses_Table[实际成本])</f>
@@ -9811,7 +9559,7 @@
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="213" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9832,7 +9580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -9922,7 +9670,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -9930,7 +9678,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -9938,7 +9686,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -9946,7 +9694,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -9954,7 +9702,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -9962,7 +9710,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -9970,7 +9718,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -9978,7 +9726,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -9986,7 +9734,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -9994,7 +9742,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -10002,7 +9750,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -10010,7 +9758,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -10018,7 +9766,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -10026,7 +9774,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -10034,7 +9782,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -10042,7 +9790,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -10050,7 +9798,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -10058,7 +9806,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -10066,7 +9814,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -10074,7 +9822,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -10082,7 +9830,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -10090,7 +9838,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -10098,7 +9846,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -10106,7 +9854,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -10114,7 +9862,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -10122,7 +9870,7 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -10130,7 +9878,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -10138,7 +9886,7 @@
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -10146,7 +9894,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -10154,7 +9902,7 @@
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -10162,7 +9910,7 @@
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -10170,7 +9918,7 @@
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -10178,7 +9926,7 @@
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -10186,7 +9934,7 @@
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -10194,7 +9942,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -10202,7 +9950,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -10210,7 +9958,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -10218,7 +9966,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -10226,7 +9974,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -10234,7 +9982,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -10242,7 +9990,7 @@
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -10250,7 +9998,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -10457,10 +10205,10 @@
   </sheetPr>
   <dimension ref="B1:H61"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10644,14 +10392,14 @@
         <v>23</v>
       </c>
       <c r="D9" s="47">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E9" s="47">
         <v>28</v>
       </c>
       <c r="F9" s="47">
         <f>IF(OR(Monthly_Expenses_Table[[#This Row],[预计成本]]="",Monthly_Expenses_Table[[#This Row],[实际成本]]=""),"",Monthly_Expenses_Table[[#This Row],[预计成本]]-Monthly_Expenses_Table[[#This Row],[实际成本]])</f>
-        <v>22</v>
+        <v>472</v>
       </c>
       <c r="G9" s="48">
         <f>Monthly_Expenses_Table[[#This Row],[实际成本]]</f>
@@ -11802,7 +11550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F61">
-    <cfRule type="cellIs" dxfId="160" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12100,14 +11848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">预算</MediaServiceKeyPoints>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -12318,6 +12058,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">预算</MediaServiceKeyPoints>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12328,23 +12076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D570CAFC-A4CA-4D3C-91F9-BA62D077EA56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C32786-B404-4925-B3AC-4B5F5955DD03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12363,6 +12094,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D570CAFC-A4CA-4D3C-91F9-BA62D077EA56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77409E34-2FFF-40B7-A328-B37BC86A40A2}">
   <ds:schemaRefs>
